--- a/src/test/resources/Documents/1076/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/1076/Actual/JobPlanning.xlsx
@@ -65,7 +65,7 @@
     <t>Linerless Labels  2p</t>
   </si>
   <si>
-    <t>Flexo press 4x0</t>
+    <t>Flexo press 5x0</t>
   </si>
   <si>
     <t/>
